--- a/example/__tests__/performance/Performance_Measure.xlsx
+++ b/example/__tests__/performance/Performance_Measure.xlsx
@@ -433,16 +433,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>524 ms</v>
+        <v>475 ms</v>
       </c>
       <c r="C2" t="str">
-        <v>296 ms</v>
+        <v>286 ms</v>
       </c>
       <c r="D2" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="E2" t="str">
-        <v>559 ms</v>
+        <v>464 ms</v>
       </c>
     </row>
     <row r="3">
@@ -450,16 +450,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>427 ms</v>
+        <v>454 ms</v>
       </c>
       <c r="C3" t="str">
-        <v>243 ms</v>
+        <v>281 ms</v>
       </c>
       <c r="D3" t="str">
-        <v>11 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E3" t="str">
-        <v>503 ms</v>
+        <v>469 ms</v>
       </c>
     </row>
     <row r="4">
@@ -467,16 +467,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>443 ms</v>
+        <v>440 ms</v>
       </c>
       <c r="C4" t="str">
-        <v>250 ms</v>
+        <v>283 ms</v>
       </c>
       <c r="D4" t="str">
-        <v>10 ms</v>
+        <v>7 ms</v>
       </c>
       <c r="E4" t="str">
-        <v>478 ms</v>
+        <v>521 ms</v>
       </c>
     </row>
     <row r="5">
@@ -484,16 +484,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>419 ms</v>
+        <v>450 ms</v>
       </c>
       <c r="C5" t="str">
-        <v>231 ms</v>
+        <v>265 ms</v>
       </c>
       <c r="D5" t="str">
-        <v>12 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="E5" t="str">
-        <v>477 ms</v>
+        <v>470 ms</v>
       </c>
     </row>
     <row r="6">
@@ -501,16 +501,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>430 ms</v>
+        <v>444 ms</v>
       </c>
       <c r="C6" t="str">
-        <v>233 ms</v>
+        <v>280 ms</v>
       </c>
       <c r="D6" t="str">
-        <v>10 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E6" t="str">
-        <v>480 ms</v>
+        <v>463 ms</v>
       </c>
     </row>
     <row r="7">
@@ -518,16 +518,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>431 ms</v>
+        <v>427 ms</v>
       </c>
       <c r="C7" t="str">
-        <v>227 ms</v>
+        <v>276 ms</v>
       </c>
       <c r="D7" t="str">
-        <v>11 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E7" t="str">
-        <v>487 ms</v>
+        <v>496 ms</v>
       </c>
     </row>
     <row r="8">
@@ -535,16 +535,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>427 ms</v>
+        <v>431 ms</v>
       </c>
       <c r="C8" t="str">
-        <v>244 ms</v>
+        <v>276 ms</v>
       </c>
       <c r="D8" t="str">
         <v>8 ms</v>
       </c>
       <c r="E8" t="str">
-        <v>469 ms</v>
+        <v>473 ms</v>
       </c>
     </row>
     <row r="9">
@@ -552,16 +552,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>418 ms</v>
+        <v>437 ms</v>
       </c>
       <c r="C9" t="str">
-        <v>234 ms</v>
+        <v>269 ms</v>
       </c>
       <c r="D9" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="E9" t="str">
-        <v>469 ms</v>
+        <v>478 ms</v>
       </c>
     </row>
     <row r="10">
@@ -569,16 +569,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>436 ms</v>
+        <v>459 ms</v>
       </c>
       <c r="C10" t="str">
-        <v>240 ms</v>
+        <v>279 ms</v>
       </c>
       <c r="D10" t="str">
-        <v>10 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="E10" t="str">
-        <v>476 ms</v>
+        <v>472 ms</v>
       </c>
     </row>
     <row r="11">
@@ -586,16 +586,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>422 ms</v>
+        <v>444 ms</v>
       </c>
       <c r="C11" t="str">
-        <v>239 ms</v>
+        <v>292 ms</v>
       </c>
       <c r="D11" t="str">
-        <v>10 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="E11" t="str">
-        <v>486 ms</v>
+        <v>475 ms</v>
       </c>
     </row>
     <row r="12">
@@ -603,16 +603,16 @@
         <v>Average</v>
       </c>
       <c r="B12" t="str">
-        <v>437.70 ms</v>
+        <v>446.10 ms</v>
       </c>
       <c r="C12" t="str">
-        <v>243.70 ms</v>
+        <v>278.70 ms</v>
       </c>
       <c r="D12" t="str">
-        <v>10.40 ms</v>
+        <v>8.40 ms</v>
       </c>
       <c r="E12" t="str">
-        <v>488.40 ms</v>
+        <v>478.10 ms</v>
       </c>
     </row>
     <row r="13">
@@ -672,16 +672,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
+        <v>7 ms</v>
+      </c>
+      <c r="C2" t="str">
         <v>11 ms</v>
       </c>
-      <c r="C2" t="str">
-        <v>12 ms</v>
-      </c>
       <c r="D2" t="str">
-        <v>13 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E2" t="str">
-        <v>13 ms</v>
+        <v>11 ms</v>
       </c>
     </row>
     <row r="3">
@@ -689,16 +689,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>10 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="C3" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="D3" t="str">
-        <v>10 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E3" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
     </row>
     <row r="4">
@@ -706,16 +706,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>10 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="C4" t="str">
-        <v>13 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="D4" t="str">
-        <v>12 ms</v>
+        <v>7 ms</v>
       </c>
       <c r="E4" t="str">
-        <v>14 ms</v>
+        <v>9 ms</v>
       </c>
     </row>
     <row r="5">
@@ -723,16 +723,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>10 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="C5" t="str">
-        <v>12 ms</v>
+        <v>13 ms</v>
       </c>
       <c r="D5" t="str">
-        <v>9 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E5" t="str">
-        <v>9 ms</v>
+        <v>8 ms</v>
       </c>
     </row>
     <row r="6">
@@ -743,13 +743,13 @@
         <v>10 ms</v>
       </c>
       <c r="C6" t="str">
-        <v>12 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="D6" t="str">
-        <v>11 ms</v>
+        <v>7 ms</v>
       </c>
       <c r="E6" t="str">
-        <v>11 ms</v>
+        <v>8 ms</v>
       </c>
     </row>
     <row r="7">
@@ -757,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>11 ms</v>
+        <v>10 ms</v>
       </c>
       <c r="C7" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="D7" t="str">
-        <v>17 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E7" t="str">
-        <v>16 ms</v>
+        <v>8 ms</v>
       </c>
     </row>
     <row r="8">
@@ -774,16 +774,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>18 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="C8" t="str">
-        <v>18 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="D8" t="str">
-        <v>14 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E8" t="str">
-        <v>15 ms</v>
+        <v>8 ms</v>
       </c>
     </row>
     <row r="9">
@@ -791,16 +791,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>12 ms</v>
+        <v>7 ms</v>
       </c>
       <c r="C9" t="str">
-        <v>12 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="D9" t="str">
-        <v>9 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E9" t="str">
-        <v>12 ms</v>
+        <v>9 ms</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         <v>10 ms</v>
       </c>
       <c r="D10" t="str">
+        <v>7 ms</v>
+      </c>
+      <c r="E10" t="str">
         <v>11 ms</v>
-      </c>
-      <c r="E10" t="str">
-        <v>12 ms</v>
       </c>
     </row>
     <row r="11">
@@ -825,16 +825,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>11 ms</v>
+        <v>9 ms</v>
       </c>
       <c r="C11" t="str">
-        <v>13 ms</v>
+        <v>10 ms</v>
       </c>
       <c r="D11" t="str">
-        <v>10 ms</v>
+        <v>8 ms</v>
       </c>
       <c r="E11" t="str">
-        <v>11 ms</v>
+        <v>12 ms</v>
       </c>
     </row>
     <row r="12">
@@ -842,16 +842,16 @@
         <v>Average</v>
       </c>
       <c r="B12" t="str">
-        <v>11.50 ms</v>
+        <v>8.80 ms</v>
       </c>
       <c r="C12" t="str">
-        <v>12.40 ms</v>
+        <v>9.60 ms</v>
       </c>
       <c r="D12" t="str">
-        <v>11.60 ms</v>
+        <v>7.70 ms</v>
       </c>
       <c r="E12" t="str">
-        <v>12.40 ms</v>
+        <v>9.30 ms</v>
       </c>
     </row>
     <row r="13">
@@ -859,10 +859,10 @@
         <v>Percentage difference</v>
       </c>
       <c r="C13" t="str">
-        <v>7.83%</v>
+        <v>9.09%</v>
       </c>
       <c r="E13" t="str">
-        <v>6.90%</v>
+        <v>20.78%</v>
       </c>
     </row>
   </sheetData>
